--- a/Casos Cartera/Procesos.xlsx
+++ b/Casos Cartera/Procesos.xlsx
@@ -9,21 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Trabajar con remesas" sheetId="15" r:id="rId1"/>
     <sheet name="ID Operación (TCR)" sheetId="38" r:id="rId2"/>
     <sheet name="Asignación ejecutivos" sheetId="16" r:id="rId3"/>
     <sheet name="Centralización Créditos Nuevos" sheetId="17" r:id="rId4"/>
-    <sheet name="Centralización Mensual" sheetId="19" r:id="rId5"/>
-    <sheet name="Centralización Recaudaciones" sheetId="20" r:id="rId6"/>
-    <sheet name="Selección de créditos (afianza)" sheetId="21" r:id="rId7"/>
-    <sheet name="Generación XML (afianza)" sheetId="22" r:id="rId8"/>
-    <sheet name="Liquidación seguro cesantía" sheetId="23" r:id="rId9"/>
-    <sheet name="Liquidacición seguro desgravame" sheetId="24" r:id="rId10"/>
-    <sheet name="Generar Archivo SBIF D92" sheetId="25" r:id="rId11"/>
-    <sheet name="Generar Archivo SBIF D93" sheetId="26" r:id="rId12"/>
+    <sheet name="Centralización Recaudaciones" sheetId="20" r:id="rId5"/>
+    <sheet name="Selección de créditos (afianza)" sheetId="21" r:id="rId6"/>
+    <sheet name="Generación XML (afianza)" sheetId="22" r:id="rId7"/>
+    <sheet name="Liquidación seguro cesantía" sheetId="23" r:id="rId8"/>
+    <sheet name="Liquidacición seguro desgravame" sheetId="24" r:id="rId9"/>
+    <sheet name="Generar Archivo SBIF D92" sheetId="25" r:id="rId10"/>
+    <sheet name="Generar Archivo SBIF D93" sheetId="26" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Trabajar con remesas'!$A$2:$O$50</definedName>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="292">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -69,99 +68,16 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>Descripción</t>
-  </si>
-  <si>
-    <t>Días</t>
-  </si>
-  <si>
-    <t>Feriados</t>
-  </si>
-  <si>
-    <t>Motivo</t>
-  </si>
-  <si>
-    <t>Mes</t>
-  </si>
-  <si>
-    <t>Día feriado</t>
-  </si>
-  <si>
-    <t>Feriado</t>
-  </si>
-  <si>
-    <t>Celebración</t>
-  </si>
-  <si>
     <t>Registro creado exitosamente</t>
   </si>
   <si>
     <t>Registro eliminado exitosamente</t>
   </si>
   <si>
-    <t>TC_Cartera_Feriados_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_AgregarEnlaceDias</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_AgregarEnlaceDiasModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_EliminarEnlaceDias</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_EliminarDiasModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_ModificarEnlaceDiasModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Feriados_ModificarEnlaceDias</t>
-  </si>
-  <si>
     <t>Registro modificado exitosamente</t>
   </si>
   <si>
     <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Concepto</t>
-  </si>
-  <si>
-    <t>Cuenta
-Contabilización</t>
-  </si>
-  <si>
-    <t>Recaudos
-Otros</t>
-  </si>
-  <si>
-    <t>Segmentos</t>
   </si>
   <si>
     <t>Sub Estados CAV</t>
@@ -174,102 +90,6 @@
     <t>Bien Descripcion</t>
   </si>
   <si>
-    <t>TC_Cartera_Feriados_ConsolidadoError</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ConsolidadoError</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_AgregarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_AgregarEnlaceModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_EliminarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_EliminarSinExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ModificarEnlace</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ModificarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Recaudacion_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_AgregarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_AgregarEnlaceModificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_AgregarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_Agregar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_EliminarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_EliminarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_EliminarSinExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_EliminarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_Eliminar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ModificarConsulta</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ModificarEnlace</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ModificarDescripcion</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ModificarExportarExcel</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_Modificar</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_ConsolidadoError</t>
-  </si>
-  <si>
     <t>TC_Cartera_SEstadosCAV_AgregarConsulta</t>
   </si>
   <si>
@@ -373,27 +193,6 @@
     <t>Sistema debe de emitir mensaje de alerta correspondiente a cada situación</t>
   </si>
   <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Feriados, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Recaudacion, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
-    <t>TC_Cartera_Segmentos_AgregarConsulta</t>
-  </si>
-  <si>
-    <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
-  </si>
-  <si>
-    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Maestro - sub modulo Segmentos, hacer clic en boton Agregar, ingresar datos de un registro existente y hacer clic en boton guardar, posterior a ello, intentar realizar registro sin llenar campos obligatorios. Finalizando con la modificación y eliminación de registro en uso.</t>
-  </si>
-  <si>
     <t>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Sub Estatos CAV, ingresando datos de un registro existente, luego de ello, intentar crear registro sin llenar campo obligatorios. Finanlizando, con la modificación y eliminación de registro que está siendo usado en otro modulo.</t>
   </si>
   <si>
@@ -1009,6 +808,123 @@
   </si>
   <si>
     <t>Sistema emite mensaje indicando No se encontraron registros para la fecha seleccionada</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosLSC_ConCobertura</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosLSC_SinCobertura</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosLSC_Todas</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosLSC_SeguroSinCobertura</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosLSC_AdministradorGarantias</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosLSC_CorredoraSeguros</t>
+  </si>
+  <si>
+    <t>Validar emisión de planilla excel, la cual contiene los créditos con seguro de cesantía, seleccionando los que tengan cobertura</t>
+  </si>
+  <si>
+    <t>Validar emisión de planilla excel, la cual contiene los créditos con seguro de cesantía, seleccionando los que no tengan cobertura</t>
+  </si>
+  <si>
+    <t>Validar emisión de planilla excel, la cual contiene los créditos con seguro de cesantía, seleccionando todos los registros.</t>
+  </si>
+  <si>
+    <t>Se genera archivo excel con los créditos que posean cobertura</t>
+  </si>
+  <si>
+    <t>Se genera archivo excel con los créditos que no posean cobertura</t>
+  </si>
+  <si>
+    <t>Se genera archivo excel con todos los créditos</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosLSD_ConCobertura</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosLSD_SinCobertura</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosLSD_Todas</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosLSD_SeguroSinCobertura</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosLSD_AdministradorGarantias</t>
+  </si>
+  <si>
+    <t>TC_Cartera_ProcesosLSD_CorredoraSeguros</t>
+  </si>
+  <si>
+    <t>Validar emisión de planilla excel, la cual contiene los créditos con seguro de desgravamen, seleccionando los que tengan cobertura</t>
+  </si>
+  <si>
+    <t>Validar emisión de planilla excel, la cual contiene los créditos con seguro de desgravamen, seleccionando los que no tengan cobertura</t>
+  </si>
+  <si>
+    <t>Validar emisión de planilla excel, la cual contiene los créditos con seguro de desgravamen, seleccionando todos los registros.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Desgravamen, seleccionar opción con cobertura del combo cobertura, hacer clic en boton exportar a excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Desgravamen, seleccionar opción sin cobertura del combo cobertura, hacer clic en boton exportar a excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Desgravamen, seleccionar opción Todos del combo cobertura, hacer clic en boton exportar a excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Desgravamen, hacer clic en boton Seguro sin Cobertura</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Desgravamen, hacer clic en boton Administrador Garantías</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Desgravamen, hacer clic en botón Corredora de Seguros</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Cesantía, seleccionar opción con cobertura del combo cobertura, hacer clic en boton exportar a excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Cesantía, seleccionar opción sin cobertura del combo cobertura, hacer clic en boton exportar a excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Cesantía, seleccionar opción Todos del combo cobertura, hacer clic en boton exportar a excel</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Cesantía, hacer clic en boton Seguro sin Cobertura</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Cesantía, hacer clic en boton Administrador Garantías</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub Liquidación Seguro Cesantía, hacer clic en botón Corredora de Seguros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar envío de archivo a directorio FTP, de liquidación de seguro sin cobertura </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validar envío de archivo por correo con la información de liquidación de seguro con cobertura </t>
+  </si>
+  <si>
+    <t>Validar envío de archivo por correo con la información de liquidación de seguro con cobertura y nombre de corredora</t>
+  </si>
+  <si>
+    <t>Envío de archivo a directorio FTP de manera exitosa</t>
+  </si>
+  <si>
+    <t>Envío de archivo a correo de liquidación de seguro con cobertura de manera exitosa</t>
+  </si>
+  <si>
+    <t>Envío de archivo a correo de liquidación de seguro con cobertura y nombre de corredora de manera exitosa</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1187,9 +1103,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1309,9 +1222,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1639,56 +1549,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="40" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="40" t="s">
+      <c r="J1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="14" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
+      <c r="A2" s="42"/>
       <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>125</v>
+        <v>58</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+        <v>62</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -1707,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="I3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,"")," ",IF(C3=1,$C$2,"")," ",IF(D3=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E3=1,", considerando la opcion enlace ID pestaña General",IF(F3=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
@@ -1718,7 +1628,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  , considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1736,7 +1646,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="I4" s="12" t="str">
         <f t="shared" ref="I4:I12" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,"")," ",IF(C4=1,$C$2,"")," ",IF(D4=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E4=1,", considerando la opcion enlace ID pestaña General",IF(F4=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
@@ -1747,7 +1657,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  , considerando la opcion enlace ID pestaña general para consultar registro</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1767,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="I5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1778,7 +1688,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1796,7 +1706,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="8"/>
       <c r="H6" s="7" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="I6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1807,7 +1717,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF , considerando la opcion enlace ID pestaña general para consultar registro</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1829,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="I7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1841,7 +1751,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro   depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1861,7 +1771,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="I8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1873,7 +1783,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro   depositar remesa, considerando la opcion enlace ID pestaña general para consultar registro</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1895,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1907,25 +1817,25 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24">
-        <v>1</v>
-      </c>
-      <c r="D10" s="23">
-        <v>1</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22">
+        <v>1</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="7" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="I10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1937,7 +1847,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton   generar archivo PDF  depositar remesa</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1961,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="I11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1973,14 +1883,14 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña recaudacion para consultar registro y exportar archivo excel</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="23">
         <v>1</v>
       </c>
       <c r="C12" s="5">
@@ -1995,7 +1905,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="8"/>
       <c r="H12" s="7" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="I12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2007,7 +1917,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Trabajar con Remesa, hacer clic en boton  agregar para el registro de nuevo registro  generar archivo PDF  depositar remesa, considerando la opcion enlace ID pestaña general para consultar registro</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2055,17 +1965,17 @@
       <c r="G17" s="8"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="26"/>
+    <row r="18" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="25"/>
       <c r="I18" s="12"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="26"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -2151,14 +2061,14 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="24"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="26"/>
+    <row r="26" spans="1:11" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="12"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
@@ -2270,16 +2180,16 @@
       <c r="F37" s="5"/>
       <c r="G37" s="8"/>
       <c r="H37" s="7" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>170</v>
+        <v>103</v>
+      </c>
+      <c r="J37" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2425,994 +2335,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="255.42578125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="79" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21">
-        <v>12</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K3" s="12" t="str">
-        <f t="shared" ref="K3:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Segmentos",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <f t="shared" ref="L3:L17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 12</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="10">
-        <v>10</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 10</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="L5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Segmentos</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton agregar</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="21">
-        <v>30</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 30</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>5</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 5</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Segmentos</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton eliminar</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21">
-        <v>2</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripción con el dato 2</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10">
-        <v>3</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripción con el dato 3</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos, considerando la opcion exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Segmentos</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Segmentos, hacer clic en boton modificar</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="7"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="7"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="7"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="7"/>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="7"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="7"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="7"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="7"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="7"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="7"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="7"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="7"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="7"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="7"/>
-    </row>
-    <row r="50" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -3426,7 +2348,7 @@
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
     <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="15" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" style="3" customWidth="1"/>
     <col min="8" max="9" width="4.85546875" style="11" customWidth="1"/>
@@ -3438,70 +2360,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="54" t="s">
+      <c r="F1" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="40" t="s">
+      <c r="I1" s="54"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="40" t="s">
+      <c r="M1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="H2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -3512,7 +2434,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>1</v>
       </c>
       <c r="F3" s="5">
@@ -3523,11 +2445,11 @@
         <v>1</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="21">
+      <c r="J3" s="20">
         <v>12</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="L3" s="12" t="str">
         <f t="shared" ref="L3:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Sub Estatos CAV",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
@@ -3538,7 +2460,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 12</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3550,7 +2472,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
@@ -3565,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="L4" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3576,7 +2498,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 10</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3588,7 +2510,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="5">
         <v>1</v>
       </c>
@@ -3597,7 +2519,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="10"/>
       <c r="K5" s="7" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="L5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3608,7 +2530,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3620,7 +2542,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
       <c r="F6" s="5"/>
@@ -3631,7 +2553,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="10"/>
       <c r="K6" s="7" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="L6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3642,7 +2564,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3654,14 +2576,14 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="5"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="7" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="L7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3671,8 +2593,8 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton agregar</v>
       </c>
-      <c r="N7" s="26" t="s">
-        <v>19</v>
+      <c r="N7" s="25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3683,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
       <c r="F8" s="5">
@@ -3694,11 +2616,11 @@
         <v>1</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3709,7 +2631,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 30</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3720,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
       <c r="F9" s="5"/>
@@ -3735,7 +2657,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3746,7 +2668,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 5</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -3765,7 +2687,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="L10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3776,7 +2698,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -3787,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>1</v>
       </c>
       <c r="F11" s="5"/>
@@ -3798,7 +2720,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="K11" s="7" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="L11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3809,7 +2731,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -3826,7 +2748,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="10"/>
       <c r="K12" s="7" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="L12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3836,8 +2758,8 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton eliminar</v>
       </c>
-      <c r="N12" s="26" t="s">
-        <v>20</v>
+      <c r="N12" s="25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -3847,7 +2769,7 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="5">
@@ -3858,11 +2780,11 @@
         <v>1</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="21">
+      <c r="J13" s="20">
         <v>2</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="L13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3873,7 +2795,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para modificar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 2</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -3883,7 +2805,7 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="5"/>
@@ -3898,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="L14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3909,7 +2831,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro, finalizando con la consulta mediante el filtro Descripcion con el dato 3</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -3925,9 +2847,9 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="20"/>
+      <c r="J15" s="19"/>
       <c r="K15" s="7" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="L15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3938,7 +2860,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en enlace Descripción para modificar registro</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -3948,7 +2870,7 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="5"/>
@@ -3959,7 +2881,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="10"/>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="L16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3970,7 +2892,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Descripción para eliminar registro</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -3986,7 +2908,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="10"/>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="L17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -3996,15 +2918,15 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Sub Estatos CAV, hacer clic en boton modificar</v>
       </c>
-      <c r="N17" s="26" t="s">
-        <v>36</v>
+      <c r="N17" s="25" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="C18" s="5"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -4019,7 +2941,7 @@
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
@@ -4034,7 +2956,7 @@
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -4049,7 +2971,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="5"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
@@ -4064,7 +2986,7 @@
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="5"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
@@ -4079,30 +3001,30 @@
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="5"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="10"/>
       <c r="K23" s="7" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M23" s="30" t="s">
-        <v>119</v>
+        <v>52</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="5"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
@@ -4117,7 +3039,7 @@
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="5"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
@@ -4132,7 +3054,7 @@
       <c r="A26" s="8"/>
       <c r="B26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="5"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
@@ -4224,7 +3146,7 @@
       <c r="A34" s="8"/>
       <c r="C34" s="5"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="5"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
@@ -4239,7 +3161,7 @@
       <c r="A35" s="8"/>
       <c r="C35" s="5"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="5"/>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
@@ -4254,7 +3176,7 @@
       <c r="A36" s="8"/>
       <c r="C36" s="5"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="15"/>
       <c r="F36" s="5"/>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
@@ -4269,7 +3191,7 @@
       <c r="A37" s="8"/>
       <c r="C37" s="5"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="5"/>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
@@ -4284,7 +3206,7 @@
       <c r="A38" s="8"/>
       <c r="C38" s="5"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
+      <c r="E38" s="15"/>
       <c r="F38" s="5"/>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
@@ -4299,7 +3221,7 @@
       <c r="A39" s="8"/>
       <c r="C39" s="5"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="15"/>
       <c r="F39" s="5"/>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
@@ -4424,7 +3346,7 @@
       <c r="A50" s="8"/>
       <c r="C50" s="5"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="5"/>
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
@@ -4451,7 +3373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
@@ -4466,7 +3388,7 @@
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
     <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="15" customWidth="1"/>
     <col min="6" max="6" width="4.42578125" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" style="3" customWidth="1"/>
     <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
@@ -4478,66 +3400,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="54" t="s">
+      <c r="F1" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="56"/>
-      <c r="J1" s="40" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="40" t="s">
+      <c r="L1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -4548,7 +3470,7 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="8"/>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>1</v>
       </c>
       <c r="F3" s="5">
@@ -4558,11 +3480,11 @@
       <c r="H3" s="9">
         <v>1</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <v>12</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="K3" s="12" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G3=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,I3,""))</f>
@@ -4573,7 +3495,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 12</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4585,7 +3507,7 @@
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8"/>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
@@ -4599,7 +3521,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="K4" s="12" t="str">
         <f t="shared" ref="K4:K17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo TIpo Bien",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Bien Descripción para modificar registro",IF(G4=1,", hacer clic en enlace Bien Descripción para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,I4,""))</f>
@@ -4610,7 +3532,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 10</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4622,7 +3544,7 @@
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="5">
         <v>1</v>
       </c>
@@ -4630,7 +3552,7 @@
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4641,7 +3563,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en enlace Bien Descripción para modificar registro</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4653,7 +3575,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>1</v>
       </c>
       <c r="F6" s="5"/>
@@ -4663,7 +3585,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="7" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4674,7 +3596,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4686,13 +3608,13 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="5"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4702,8 +3624,8 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton agregar</v>
       </c>
-      <c r="M7" s="26" t="s">
-        <v>19</v>
+      <c r="M7" s="25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4714,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>1</v>
       </c>
       <c r="F8" s="5">
@@ -4724,11 +3646,11 @@
       <c r="H8" s="9">
         <v>1</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>30</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4739,7 +3661,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 30</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4750,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>1</v>
       </c>
       <c r="F9" s="5"/>
@@ -4764,7 +3686,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4775,7 +3697,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 5</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -4793,7 +3715,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
       <c r="J10" s="7" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4804,7 +3726,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en enlace Bien Descripción para modificar registro</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -4815,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>1</v>
       </c>
       <c r="F11" s="5"/>
@@ -4825,7 +3747,7 @@
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="K11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4836,7 +3758,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -4852,7 +3774,7 @@
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
       <c r="J12" s="7" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4862,8 +3784,8 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton eliminar</v>
       </c>
-      <c r="M12" s="26" t="s">
-        <v>20</v>
+      <c r="M12" s="25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -4873,7 +3795,7 @@
       <c r="D13" s="5">
         <v>1</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>1</v>
       </c>
       <c r="F13" s="5">
@@ -4883,11 +3805,11 @@
       <c r="H13" s="9">
         <v>1</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <v>2</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4898,7 +3820,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para modificar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 2</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -4908,7 +3830,7 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>1</v>
       </c>
       <c r="F14" s="5"/>
@@ -4922,7 +3844,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4933,7 +3855,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro, finalizando con la consulta mediante el filtro Bien Descripcion con el dato 3</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -4948,9 +3870,9 @@
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="7" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="K15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4961,7 +3883,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en enlace Bien Descripción para modificar registro</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -4971,7 +3893,7 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
       <c r="F16" s="5"/>
@@ -4981,7 +3903,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="K16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4992,7 +3914,7 @@
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Bien Descripción para eliminar registro</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -5007,7 +3929,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="K17" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5017,15 +3939,15 @@
         <f t="shared" si="1"/>
         <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo TIpo Bien, hacer clic en boton modificar</v>
       </c>
-      <c r="M17" s="26" t="s">
-        <v>36</v>
+      <c r="M17" s="25" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="C18" s="5"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
@@ -5039,7 +3961,7 @@
       <c r="A19" s="8"/>
       <c r="B19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
@@ -5053,7 +3975,7 @@
       <c r="A20" s="8"/>
       <c r="B20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
@@ -5067,7 +3989,7 @@
       <c r="A21" s="8"/>
       <c r="B21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="5"/>
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
@@ -5081,7 +4003,7 @@
       <c r="A22" s="8"/>
       <c r="B22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="5"/>
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
@@ -5095,7 +4017,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
+      <c r="E23" s="15"/>
       <c r="F23" s="5"/>
       <c r="G23" s="8"/>
       <c r="H23" s="9"/>
@@ -5109,29 +4031,29 @@
       <c r="A24" s="8"/>
       <c r="B24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="5"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
       <c r="J24" s="7" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L24" s="30" t="s">
-        <v>122</v>
+        <v>55</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
+      <c r="E25" s="15"/>
       <c r="F25" s="5"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
@@ -5145,7 +4067,7 @@
       <c r="A26" s="8"/>
       <c r="B26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
+      <c r="E26" s="15"/>
       <c r="F26" s="5"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
@@ -5229,7 +4151,7 @@
       <c r="A34" s="8"/>
       <c r="C34" s="5"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="5"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
@@ -5243,7 +4165,7 @@
       <c r="A35" s="8"/>
       <c r="C35" s="5"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
+      <c r="E35" s="15"/>
       <c r="F35" s="5"/>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
@@ -5257,7 +4179,7 @@
       <c r="A36" s="8"/>
       <c r="C36" s="5"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
+      <c r="E36" s="15"/>
       <c r="F36" s="5"/>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
@@ -5271,7 +4193,7 @@
       <c r="A37" s="8"/>
       <c r="C37" s="5"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="5"/>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
@@ -5285,7 +4207,7 @@
       <c r="A38" s="8"/>
       <c r="C38" s="5"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
+      <c r="E38" s="15"/>
       <c r="F38" s="5"/>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
@@ -5299,7 +4221,7 @@
       <c r="A39" s="8"/>
       <c r="C39" s="5"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="15"/>
       <c r="F39" s="5"/>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
@@ -5413,7 +4335,7 @@
       <c r="A50" s="8"/>
       <c r="C50" s="5"/>
       <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="5"/>
       <c r="G50" s="8"/>
       <c r="H50" s="9"/>
@@ -5475,142 +4397,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="48"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="X1" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="40" t="s">
+      <c r="A1" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="47"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="49"/>
+      <c r="P1" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="40" t="s">
+      <c r="AC1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="40" t="s">
+      <c r="AD1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:31" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="19" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="N2" s="19" t="s">
+      <c r="M2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>146</v>
+      <c r="Q2" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>80</v>
       </c>
       <c r="U2" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="V2" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="W2" s="41"/>
-      <c r="X2" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="Y2" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
+        <v>81</v>
+      </c>
+      <c r="V2" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="W2" s="40"/>
+      <c r="X2" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -5641,7 +4563,7 @@
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="16">
+      <c r="W3" s="15">
         <v>1</v>
       </c>
       <c r="X3" s="5"/>
@@ -5649,16 +4571,16 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="7" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="AD3" s="7" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="AE3" s="7" t="s">
-        <v>188</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5690,22 +4612,22 @@
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="16"/>
+      <c r="W4" s="15"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="5"/>
       <c r="AA4" s="8"/>
       <c r="AB4" s="7" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="AD4" s="7" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="AE4" s="7" t="s">
-        <v>191</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5737,22 +4659,22 @@
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="16"/>
+      <c r="W5" s="15"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="8"/>
       <c r="AB5" s="7" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>197</v>
+        <v>131</v>
       </c>
       <c r="AE5" s="7" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5784,67 +4706,67 @@
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="16"/>
+      <c r="W6" s="15"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="8"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="8"/>
       <c r="AB6" s="7" t="s">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>201</v>
+        <v>135</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" s="28" customFormat="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="23">
-        <v>1</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="22">
+        <v>1</v>
+      </c>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="22"/>
       <c r="AB7" s="7" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="AC7" s="12" t="s">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="AD7" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE7" s="26" t="s">
-        <v>20</v>
+        <v>136</v>
+      </c>
+      <c r="AE7" s="25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5868,22 +4790,22 @@
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="16"/>
+      <c r="W8" s="15"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="8"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="7" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="AC8" s="12" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5907,22 +4829,22 @@
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="16"/>
+      <c r="W9" s="15"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="8"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="7" t="s">
-        <v>177</v>
+        <v>111</v>
       </c>
       <c r="AC9" s="12" t="s">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c r="AD9" s="7" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="AE9" s="7" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -5948,22 +4870,22 @@
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="8"/>
-      <c r="W10" s="16"/>
+      <c r="W10" s="15"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="7" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="AC10" s="12" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="AD10" s="7" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="AE10" s="7" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -5985,59 +4907,59 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="8"/>
-      <c r="W11" s="16"/>
+      <c r="W11" s="15"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="7" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="AD11" s="7" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="AE11" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>1</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="23">
-        <v>1</v>
-      </c>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="24"/>
-      <c r="AA12" s="23"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="22">
+        <v>1</v>
+      </c>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="22"/>
       <c r="AB12" s="7" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="AD12" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE12" s="26" t="s">
-        <v>217</v>
+        <v>150</v>
+      </c>
+      <c r="AE12" s="25" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -6056,7 +4978,7 @@
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="16">
+      <c r="W13" s="15">
         <v>1</v>
       </c>
       <c r="X13" s="5"/>
@@ -6064,16 +4986,16 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="7" t="s">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="AC13" s="12" t="s">
-        <v>218</v>
+        <v>152</v>
       </c>
       <c r="AD13" s="7" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="AE13" s="7" t="s">
-        <v>220</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -6094,22 +5016,22 @@
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="8"/>
-      <c r="W14" s="16"/>
+      <c r="W14" s="15"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="5"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="7" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="AC14" s="12" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="AD14" s="7" t="s">
-        <v>222</v>
+        <v>156</v>
       </c>
       <c r="AE14" s="7" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -6132,22 +5054,22 @@
       </c>
       <c r="U15" s="5"/>
       <c r="V15" s="8"/>
-      <c r="W15" s="16"/>
+      <c r="W15" s="15"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="5"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="7" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="AC15" s="12" t="s">
-        <v>224</v>
+        <v>158</v>
       </c>
       <c r="AD15" s="7" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="AE15" s="7" t="s">
-        <v>226</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -6170,61 +5092,61 @@
         <v>1</v>
       </c>
       <c r="V16" s="8"/>
-      <c r="W16" s="16"/>
+      <c r="W16" s="15"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="8"/>
       <c r="AB16" s="7" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="AC16" s="12" t="s">
-        <v>227</v>
+        <v>161</v>
       </c>
       <c r="AD16" s="7" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="AE16" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" s="27" customFormat="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>1</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24">
-        <v>1</v>
-      </c>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="23">
-        <v>1</v>
-      </c>
-      <c r="W17" s="25"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="23"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23">
+        <v>1</v>
+      </c>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="22">
+        <v>1</v>
+      </c>
+      <c r="W17" s="24"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="22"/>
       <c r="AB17" s="7" t="s">
-        <v>185</v>
+        <v>119</v>
       </c>
       <c r="AC17" s="12" t="s">
-        <v>230</v>
+        <v>164</v>
       </c>
       <c r="AD17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE17" s="26" t="s">
-        <v>232</v>
+        <v>165</v>
+      </c>
+      <c r="AE17" s="25" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6244,7 +5166,7 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="8"/>
-      <c r="W18" s="16"/>
+      <c r="W18" s="15"/>
       <c r="X18" s="5">
         <v>1</v>
       </c>
@@ -6252,16 +5174,16 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="7" t="s">
-        <v>186</v>
+        <v>120</v>
       </c>
       <c r="AC18" s="12" t="s">
-        <v>233</v>
+        <v>167</v>
       </c>
       <c r="AD18" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE18" s="26" t="s">
-        <v>236</v>
+        <v>169</v>
+      </c>
+      <c r="AE18" s="25" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6289,7 +5211,7 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="8"/>
-      <c r="W19" s="16"/>
+      <c r="W19" s="15"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="8">
         <v>1</v>
@@ -6297,16 +5219,16 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="7" t="s">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="AC19" s="12" t="s">
-        <v>234</v>
+        <v>168</v>
       </c>
       <c r="AD19" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE19" s="26" t="s">
-        <v>236</v>
+        <v>169</v>
+      </c>
+      <c r="AE19" s="25" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6336,22 +5258,22 @@
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="8"/>
-      <c r="W20" s="16"/>
+      <c r="W20" s="15"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="8"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="8"/>
       <c r="AB20" s="7" t="s">
-        <v>194</v>
+        <v>128</v>
       </c>
       <c r="AC20" s="12" t="s">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="AD20" s="7" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="AE20" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6381,22 +5303,22 @@
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="8"/>
-      <c r="W21" s="16"/>
+      <c r="W21" s="15"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="8"/>
       <c r="Z21" s="5"/>
       <c r="AA21" s="8"/>
       <c r="AB21" s="7" t="s">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="AC21" s="12" t="s">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="AD21" s="7" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="AE21" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6422,7 +5344,7 @@
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="8"/>
-      <c r="W22" s="16"/>
+      <c r="W22" s="15"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="5"/>
@@ -6455,7 +5377,7 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="8"/>
-      <c r="W23" s="16"/>
+      <c r="W23" s="15"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="8"/>
       <c r="Z23" s="5"/>
@@ -6488,7 +5410,7 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="8"/>
-      <c r="W24" s="16"/>
+      <c r="W24" s="15"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="8"/>
       <c r="Z24" s="5"/>
@@ -6521,14 +5443,14 @@
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="8"/>
-      <c r="W25" s="16"/>
+      <c r="W25" s="15"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="8"/>
       <c r="Z25" s="5"/>
       <c r="AA25" s="8"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="12"/>
-      <c r="AD25" s="30"/>
+      <c r="AD25" s="29"/>
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6554,7 +5476,7 @@
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="8"/>
-      <c r="W26" s="16"/>
+      <c r="W26" s="15"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="5"/>
@@ -6579,7 +5501,7 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="8"/>
-      <c r="W27" s="16"/>
+      <c r="W27" s="15"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="5"/>
@@ -6601,7 +5523,7 @@
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="8"/>
-      <c r="W28" s="16"/>
+      <c r="W28" s="15"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="5"/>
@@ -6623,22 +5545,22 @@
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="8"/>
-      <c r="W29" s="16"/>
+      <c r="W29" s="15"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="5"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="7" t="s">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="AC29" s="12" t="s">
-        <v>244</v>
+        <v>178</v>
       </c>
       <c r="AD29" s="7" t="s">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="AE29" s="7" t="s">
-        <v>246</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -6656,22 +5578,22 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="8"/>
-      <c r="W30" s="16"/>
+      <c r="W30" s="15"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="8"/>
       <c r="Z30" s="5"/>
       <c r="AA30" s="8"/>
       <c r="AB30" s="7" t="s">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="AC30" s="12" t="s">
-        <v>248</v>
+        <v>182</v>
       </c>
       <c r="AD30" s="7" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="AE30" s="7" t="s">
-        <v>250</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -6689,7 +5611,7 @@
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="8"/>
-      <c r="W31" s="16"/>
+      <c r="W31" s="15"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="8"/>
       <c r="Z31" s="5"/>
@@ -6711,7 +5633,7 @@
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="8"/>
-      <c r="W32" s="16"/>
+      <c r="W32" s="15"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="5"/>
@@ -6733,7 +5655,7 @@
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="8"/>
-      <c r="W33" s="16"/>
+      <c r="W33" s="15"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="5"/>
@@ -6755,7 +5677,7 @@
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="8"/>
-      <c r="W34" s="16"/>
+      <c r="W34" s="15"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="5"/>
@@ -6780,7 +5702,7 @@
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="8"/>
-      <c r="W35" s="16"/>
+      <c r="W35" s="15"/>
       <c r="X35" s="5"/>
       <c r="Y35" s="8"/>
       <c r="Z35" s="5"/>
@@ -6805,7 +5727,7 @@
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="8"/>
-      <c r="W36" s="16"/>
+      <c r="W36" s="15"/>
       <c r="X36" s="5"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="5"/>
@@ -6830,7 +5752,7 @@
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="8"/>
-      <c r="W37" s="16"/>
+      <c r="W37" s="15"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="8"/>
       <c r="Z37" s="5"/>
@@ -6855,7 +5777,7 @@
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="8"/>
-      <c r="W38" s="16"/>
+      <c r="W38" s="15"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="8"/>
       <c r="Z38" s="5"/>
@@ -6880,7 +5802,7 @@
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="8"/>
-      <c r="W39" s="16"/>
+      <c r="W39" s="15"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="8"/>
       <c r="Z39" s="5"/>
@@ -6905,7 +5827,7 @@
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="8"/>
-      <c r="W40" s="16"/>
+      <c r="W40" s="15"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="5"/>
@@ -6927,7 +5849,7 @@
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="8"/>
-      <c r="W41" s="16"/>
+      <c r="W41" s="15"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="8"/>
       <c r="Z41" s="5"/>
@@ -6949,7 +5871,7 @@
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="8"/>
-      <c r="W42" s="16"/>
+      <c r="W42" s="15"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="8"/>
       <c r="Z42" s="5"/>
@@ -6971,7 +5893,7 @@
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="8"/>
-      <c r="W43" s="16"/>
+      <c r="W43" s="15"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="8"/>
       <c r="Z43" s="5"/>
@@ -6993,7 +5915,7 @@
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="8"/>
-      <c r="W44" s="16"/>
+      <c r="W44" s="15"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="5"/>
@@ -7015,7 +5937,7 @@
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="8"/>
-      <c r="W45" s="16"/>
+      <c r="W45" s="15"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="8"/>
       <c r="Z45" s="5"/>
@@ -7037,7 +5959,7 @@
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="8"/>
-      <c r="W46" s="16"/>
+      <c r="W46" s="15"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="8"/>
       <c r="Z46" s="5"/>
@@ -7059,7 +5981,7 @@
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="8"/>
-      <c r="W47" s="16"/>
+      <c r="W47" s="15"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="8"/>
       <c r="Z47" s="5"/>
@@ -7081,7 +6003,7 @@
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
       <c r="V48" s="8"/>
-      <c r="W48" s="16"/>
+      <c r="W48" s="15"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="8"/>
       <c r="Z48" s="5"/>
@@ -7103,7 +6025,7 @@
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
       <c r="V49" s="8"/>
-      <c r="W49" s="16"/>
+      <c r="W49" s="15"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="8"/>
       <c r="Z49" s="5"/>
@@ -7125,7 +6047,7 @@
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="8"/>
-      <c r="W50" s="16"/>
+      <c r="W50" s="15"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="8"/>
       <c r="Z50" s="5"/>
@@ -7173,65 +6095,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>257</v>
+        <v>191</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>252</v>
+        <v>186</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>259</v>
+        <v>190</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>193</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>260</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7240,11 +6162,11 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
       <c r="B7" s="12"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="26"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -7264,11 +6186,11 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
       <c r="B12" s="12"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -7282,17 +6204,17 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:4" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
       <c r="B17" s="12"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="12"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="26"/>
+      <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -7333,7 +6255,7 @@
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="30"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7465,51 +6387,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>294</v>
+        <v>228</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>298</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7570,7 +6492,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -7587,7 +6509,7 @@
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -7732,1116 +6654,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="12" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="255.42578125" style="12" customWidth="1"/>
-    <col min="14" max="14" width="255.42578125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="79" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="21">
-        <v>12</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace Días para modificar registro",IF(G3=1,", hacer clic en enlace Días para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",IF(I3=1,", finalizando con la consulta mediante el filtro ",IF(J3=1,", finalizando con la consulta mediante el filtro ",""))),IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))),IF(H3=1," con el dato ",IF(I3=1," con el dato ",IF(J3=1," con el dato ",""))),IF(H3=1,K3,IF(I3=1,K3,IF(J3=1,K3,""))))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 12</v>
-      </c>
-      <c r="N3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace Días para modificar registro",IF(G3=1,", hacer clic en enlace Días para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",IF(I3=1,", finalizando con la consulta mediante el filtro ",IF(J3=1,", finalizando con la consulta mediante el filtro ",""))),IF(H3=1,$H$2,IF(I3=1,$I$2,IF(J3=1,$J$2,""))),IF(H3=1," con el dato ",IF(I3=1," con el dato ",IF(J3=1," con el dato ",""))),IF(H3=1,K3,IF(I3=1,K3,IF(J3=1,K3,""))))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 12</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9">
-        <v>1</v>
-      </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10">
-        <v>10</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace Días para modificar registro",IF(G4=1,", hacer clic en enlace Días para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",IF(I4=1,", finalizando con la consulta mediante el filtro ",IF(J4=1,", finalizando con la consulta mediante el filtro ",""))),IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))),IF(H4=1," con el dato ",IF(I4=1," con el dato ",IF(J4=1," con el dato ",""))),IF(H4=1,K4,IF(I4=1,K4,IF(J4=1,K4,""))))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 10</v>
-      </c>
-      <c r="N4" s="12" t="str">
-        <f t="shared" ref="N4:N17" si="0">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace Días para modificar registro",IF(G4=1,", hacer clic en enlace Días para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",IF(I4=1,", finalizando con la consulta mediante el filtro ",IF(J4=1,", finalizando con la consulta mediante el filtro ",""))),IF(H4=1,$H$2,IF(I4=1,$I$2,IF(J4=1,$J$2,""))),IF(H4=1," con el dato ",IF(I4=1," con el dato ",IF(J4=1," con el dato ",""))),IF(H4=1,K4,IF(I4=1,K4,IF(J4=1,K4,""))))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 10</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" ref="M5:M17" si="1">CONCATENATE("Validar funcionalidad ",IF(B5=1,$B$2,IF(C5=1,$C$2,IF(D5=1,$D$2)))," del modulo Maestro, sub-modulo Feriados",IF(E5=1,", considerando la opcion exportar a excel",""),IF(F5=1,", hacer clic en enlace Días para modificar registro",IF(G5=1,", hacer clic en enlace Días para eliminar registro","")),IF(H5=1,", finalizando con la consulta mediante el filtro ",IF(I5=1,", finalizando con la consulta mediante el filtro ",IF(J5=1,", finalizando con la consulta mediante el filtro ",""))),IF(H5=1,$H$2,IF(I5=1,$I$2,IF(J5=1,$J$2,""))),IF(H5=1," con el dato ",IF(I5=1," con el dato ",IF(J5=1," con el dato ",""))),IF(H5=1,K5,IF(I5=1,K5,IF(J5=1,K5,""))))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Día feriado</v>
-      </c>
-      <c r="N5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Día feriado</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="N6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Feriados</v>
-      </c>
-      <c r="N7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton agregar</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="21">
-        <v>30</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 30</v>
-      </c>
-      <c r="N8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 30</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10">
-        <v>5</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 5</v>
-      </c>
-      <c r="N9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 5</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9">
-        <v>1</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Feriado</v>
-      </c>
-      <c r="N10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Feriado</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="N11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Feriados</v>
-      </c>
-      <c r="N12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton eliminar</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="21">
-        <v>2</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 2</v>
-      </c>
-      <c r="N13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Días con el dato 2</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9">
-        <v>1</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10">
-        <v>3</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 3</v>
-      </c>
-      <c r="N14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro, finalizando con la consulta mediante el filtro Mes con el dato 3</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9">
-        <v>1</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Celebración</v>
-      </c>
-      <c r="N15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en enlace Días para modificar registro, finalizando con la consulta mediante el filtro Motivo con el dato Celebración</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados, considerando la opcion exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="N16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace Días para eliminar registro</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Feriados</v>
-      </c>
-      <c r="N17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Feriados, hacer clic en boton modificar</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-    </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-    </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-    </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="7"/>
-    </row>
-    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -8854,93 +6670,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>305</v>
+        <v>239</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>310</v>
+        <v>244</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>311</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>313</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>315</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>308</v>
+        <v>242</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>317</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>318</v>
+        <v>244</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -8966,7 +6782,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -8987,7 +6803,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -9016,13 +6832,324 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
       <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="126.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="101" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9158,101 +7285,85 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="126.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="12" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="101" style="7" customWidth="1"/>
+    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>264</v>
+        <v>215</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>277</v>
-      </c>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>280</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -9277,7 +7388,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -9298,7 +7409,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -9333,7 +7444,7 @@
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="30"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9463,97 +7574,121 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C6" sqref="C6"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="129.42578125" style="12" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="79" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="103.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="D6" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="26"/>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -9572,7 +7707,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="26"/>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -9593,7 +7728,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="26"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
@@ -9622,13 +7757,333 @@
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="30"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M15" sqref="M14:M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="140.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="106.5703125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="C11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="C16" s="12"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9751,1045 +8206,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N50"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A3:A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="4.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="51.7109375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="255.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="79" style="7" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9">
-        <v>1</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="21">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="12" t="str">
-        <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,IF(C3=1,$C$2,IF(D3=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E3=1,", considerando la opcion exportar a excel",""),IF(F3=1,", hacer clic en enlace concepto para modificar registro",IF(G3=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
-      </c>
-      <c r="M3" s="12" t="str">
-        <f>CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B3=1,", hacer clic en boton agregar",IF(C3=1,", hacer clic en boton eliminar",IF(D3=1,", hacer clic en boton modificar"))),IF(E3=1,", hacer clic en boton exportar a excel",""),IF(F3=1,", hacer clic en enlace concepto para modificar registro",IF(G3=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H3=1,", finalizando con la consulta mediante el filtro ",""),IF(H3=1,$H$2,""),IF(H3=1," con el dato ",""),IF(H3=1,J3,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 12</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9">
-        <v>1</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10">
-        <v>10</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="12" t="str">
-        <f t="shared" ref="L4:L17" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,IF(C4=1,$C$2,IF(D4=1,$D$2)))," del modulo Maestro, sub-modulo Recaudacion",IF(E4=1,", considerando la opcion exportar a excel",""),IF(F4=1,", hacer clic en enlace concepto para modificar registro",IF(G4=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
-      </c>
-      <c r="M4" s="12" t="str">
-        <f t="shared" ref="M4:M17" si="1">CONCATENATE("Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion",IF(B4=1,", hacer clic en boton agregar",IF(C4=1,", hacer clic en boton eliminar",IF(D4=1,", hacer clic en boton modificar"))),IF(E4=1,", hacer clic en boton exportar a excel",""),IF(F4=1,", hacer clic en enlace concepto para modificar registro",IF(G4=1,", hacer clic en enlace concepto para eliminar registro","")),IF(H4=1,", finalizando con la consulta mediante el filtro ",""),IF(H4=1,$H$2,""),IF(H4=1," con el dato ",""),IF(H4=1,J4,""))</f>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 10</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="M5" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="M6" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Agregar del modulo Maestro, sub-modulo Recaudacion</v>
-      </c>
-      <c r="M7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton agregar</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9">
-        <v>1</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="21">
-        <v>30</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
-      </c>
-      <c r="M8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 30</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10">
-        <v>5</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
-      </c>
-      <c r="M9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 5</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="M10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="M11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Eliminar del modulo Maestro, sub-modulo Recaudacion</v>
-      </c>
-      <c r="M12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton eliminar</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9">
-        <v>1</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="21">
-        <v>2</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para modificar registro, finalizando con la consulta mediante el filtro Concepto con el dato 2</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
-        <v>1</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10">
-        <v>3</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
-      </c>
-      <c r="M14" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro, finalizando con la consulta mediante el filtro Concepto con el dato 3</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="M15" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en enlace concepto para modificar registro</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="16">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion, considerando la opcion exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="M16" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar, hacer clic en boton exportar a excel, hacer clic en enlace concepto para eliminar registro</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>Validar funcionalidad Modificar del modulo Maestro, sub-modulo Recaudacion</v>
-      </c>
-      <c r="M17" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>Acceder a sistema Cartera con usuario que posee perfil para ingresar  al modulo Maestro, sub-modulo Recaudacion, hacer clic en boton modificar</v>
-      </c>
-      <c r="N17" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M22" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="N22" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="8"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="8"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="8"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="8"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="8"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="8"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="8"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="8"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="8"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="8"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="8"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="8"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="8"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="8"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="8"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="8"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Casos Cartera/Procesos.xlsx
+++ b/Casos Cartera/Procesos.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="254">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -799,13 +799,22 @@
   </si>
   <si>
     <t>TC_Cartera_SBIFD92_FechaError</t>
+  </si>
+  <si>
+    <t>TC_Cartera_SBIFD93_DescargarArchivo</t>
+  </si>
+  <si>
+    <t>TC_Cartera_SBIFD93_EmitirNomina</t>
+  </si>
+  <si>
+    <t>TC_Cartera_SBIFD93_FechaError</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -815,20 +824,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -948,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,10 +960,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1045,6 +1036,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1053,50 +1056,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1413,67 +1372,67 @@
   <cols>
     <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="9" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" style="2" customWidth="1"/>
     <col min="5" max="6" width="6.140625" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="54.28515625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="255.42578125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="255.42578125" style="8" customWidth="1"/>
     <col min="10" max="10" width="255.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="79" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="36" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="31" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="31" t="s">
+      <c r="J1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:11" s="10" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -1494,7 +1453,7 @@
       <c r="H3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="10" t="str">
+      <c r="I3" s="8" t="str">
         <f>CONCATENATE("Validar funcionalidad ",IF(B3=1,$B$2,"")," ",IF(C3=1,$C$2,"")," ",IF(D3=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E3=1,", considerando la opcion enlace ID pestaña General",IF(F3=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
         <v>Validar funcionalidad Agregar   del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
       </c>
@@ -1523,7 +1482,7 @@
       <c r="H4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="10" t="str">
+      <c r="I4" s="8" t="str">
         <f t="shared" ref="I4:I12" si="0">CONCATENATE("Validar funcionalidad ",IF(B4=1,$B$2,"")," ",IF(C4=1,$C$2,"")," ",IF(D4=1,$D$2,"")," del modulo Procesos, sub-modulo Trabajar con Remesa",IF(E4=1,", considerando la opcion enlace ID pestaña General",IF(F4=1,", considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel","")))</f>
         <v>Validar funcionalidad Agregar   del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
       </c>
@@ -1554,7 +1513,7 @@
       <c r="H5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="10" t="str">
+      <c r="I5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Validar funcionalidad  PDF  del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
       </c>
@@ -1583,7 +1542,7 @@
       <c r="H6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="10" t="str">
+      <c r="I6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Validar funcionalidad  PDF  del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
       </c>
@@ -1616,7 +1575,7 @@
       <c r="H7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="10" t="str">
+      <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar  Depositar
 Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
@@ -1648,7 +1607,7 @@
       <c r="H8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="10" t="str">
+      <c r="I8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar  Depositar
 Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
@@ -1682,7 +1641,7 @@
       <c r="H9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="10" t="str">
+      <c r="I9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Validar funcionalidad  PDF Depositar
 Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
@@ -1695,24 +1654,24 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13"/>
       <c r="H10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="10" t="str">
+      <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Validar funcionalidad  PDF Depositar
 Remesa del modulo Procesos, sub-modulo Trabajar con Remesa</v>
@@ -1748,7 +1707,7 @@
       <c r="H11" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="10" t="str">
+      <c r="I11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar PDF Depositar
 Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña Recaudacion y exportar registro a archivo excel</v>
@@ -1765,7 +1724,7 @@
       <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>1</v>
       </c>
       <c r="C12" s="4">
@@ -1782,7 +1741,7 @@
       <c r="H12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="10" t="str">
+      <c r="I12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>Validar funcionalidad Agregar PDF Depositar
 Remesa del modulo Procesos, sub-modulo Trabajar con Remesa, considerando la opcion enlace ID pestaña General</v>
@@ -1840,17 +1799,17 @@
       <c r="G17" s="7"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="10"/>
+    <row r="18" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="18"/>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -1860,7 +1819,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="7"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="10"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
@@ -1872,7 +1831,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="7"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
@@ -1884,7 +1843,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="7"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="10"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
@@ -1896,7 +1855,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
@@ -1908,7 +1867,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="7"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="10"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
@@ -1920,7 +1879,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="7"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
@@ -1932,19 +1891,19 @@
       <c r="F25" s="4"/>
       <c r="G25" s="7"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="10"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="10"/>
+    <row r="26" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
@@ -2019,7 +1978,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="7"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="10"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
@@ -2031,7 +1990,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="7"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="10"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
     </row>
@@ -2043,7 +2002,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="7"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="10"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
@@ -2057,10 +2016,10 @@
       <c r="H37" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="J37" s="19" t="s">
         <v>60</v>
       </c>
       <c r="K37" s="6" t="s">
@@ -2075,7 +2034,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="10"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6"/>
     </row>
@@ -2087,7 +2046,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="10"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
@@ -2189,7 +2148,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="10"/>
+      <c r="I50" s="8"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
     </row>
@@ -2214,170 +2173,170 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="255.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="255.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="79" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
@@ -2404,37 +2363,37 @@
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
@@ -2470,7 +2429,7 @@
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
@@ -2487,510 +2446,275 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="51.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="255.42578125" style="53" customWidth="1"/>
-    <col min="12" max="12" width="255.42578125" style="52" customWidth="1"/>
-    <col min="13" max="13" width="79" style="52" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="51.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="255.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="79" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="47" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-    </row>
-    <row r="2" spans="1:13" s="50" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-    </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="8"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="52"/>
-    </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="52"/>
-    </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="52"/>
-    </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="52"/>
-    </row>
-    <row r="7" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="54"/>
-    </row>
-    <row r="8" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="8"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="52"/>
-    </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="52"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="52"/>
-      <c r="L10" s="53"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="52"/>
-      <c r="L11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="52"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="L13" s="53"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="52"/>
-      <c r="L14" s="53"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="52"/>
-      <c r="L15" s="53"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="52"/>
-      <c r="L16" s="53"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="52"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="54"/>
-    </row>
-    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-    </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-    </row>
-    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-    </row>
-    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-    </row>
-    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-    </row>
-    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-    </row>
-    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="52"/>
-    </row>
-    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-    </row>
-    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="52"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="52"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="52"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="52"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="52"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="52"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="52"/>
-    </row>
-    <row r="34" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-    </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="52"/>
-      <c r="M35" s="52"/>
-    </row>
-    <row r="36" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-    </row>
-    <row r="37" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="52"/>
-      <c r="M37" s="52"/>
-    </row>
-    <row r="38" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-    </row>
-    <row r="39" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="52"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="52"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="52"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="52"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="52"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="52"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="52"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="52"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="52"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="52"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="52"/>
-    </row>
-    <row r="50" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="6"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3016,7 +2740,7 @@
     <col min="13" max="13" width="4.140625" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" customWidth="1"/>
     <col min="15" max="15" width="5.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="9" customWidth="1"/>
     <col min="17" max="17" width="5.28515625" style="2" customWidth="1"/>
     <col min="18" max="21" width="5" customWidth="1"/>
     <col min="22" max="22" width="5.7109375" style="2" customWidth="1"/>
@@ -3026,148 +2750,148 @@
     <col min="26" max="26" width="5" customWidth="1"/>
     <col min="27" max="27" width="5.7109375" style="2" customWidth="1"/>
     <col min="28" max="28" width="49.42578125" style="5" customWidth="1"/>
-    <col min="29" max="29" width="255.42578125" style="10" customWidth="1"/>
+    <col min="29" max="29" width="255.42578125" style="8" customWidth="1"/>
     <col min="30" max="30" width="255.42578125" style="6" customWidth="1"/>
     <col min="31" max="31" width="79" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="43" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="44"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="42" t="s">
+      <c r="L1" s="37"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="40" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="42" t="s">
+      <c r="Q1" s="39"/>
+      <c r="R1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="31" t="s">
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="42" t="s">
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="31" t="s">
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AD1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AD1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="12" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34"/>
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:31" s="10" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="14" t="s">
+      <c r="W2" s="30"/>
+      <c r="X2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Y2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -3198,7 +2922,7 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="13">
+      <c r="W3" s="11">
         <v>1</v>
       </c>
       <c r="X3" s="4"/>
@@ -3208,7 +2932,7 @@
       <c r="AB3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="8" t="s">
         <v>83</v>
       </c>
       <c r="AD3" s="6" t="s">
@@ -3247,7 +2971,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="13"/>
+      <c r="W4" s="11"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="7"/>
       <c r="Z4" s="4"/>
@@ -3255,7 +2979,7 @@
       <c r="AB4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="8" t="s">
         <v>82</v>
       </c>
       <c r="AD4" s="6" t="s">
@@ -3294,7 +3018,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="13"/>
+      <c r="W5" s="11"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="4"/>
@@ -3302,7 +3026,7 @@
       <c r="AB5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AC5" s="10" t="s">
+      <c r="AC5" s="8" t="s">
         <v>88</v>
       </c>
       <c r="AD5" s="6" t="s">
@@ -3341,7 +3065,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="7"/>
-      <c r="W6" s="13"/>
+      <c r="W6" s="11"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="4"/>
@@ -3349,7 +3073,7 @@
       <c r="AB6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AC6" s="8" t="s">
         <v>89</v>
       </c>
       <c r="AD6" s="6" t="s">
@@ -3359,48 +3083,48 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="15">
-        <v>1</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="13"/>
       <c r="AB7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="10" t="s">
+      <c r="AC7" s="8" t="s">
         <v>90</v>
       </c>
       <c r="AD7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AE7" s="18" t="s">
+      <c r="AE7" s="16" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3425,7 +3149,7 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="7"/>
-      <c r="W8" s="13"/>
+      <c r="W8" s="11"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="4"/>
@@ -3433,7 +3157,7 @@
       <c r="AB8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="AC8" s="10" t="s">
+      <c r="AC8" s="8" t="s">
         <v>95</v>
       </c>
       <c r="AD8" s="6" t="s">
@@ -3464,7 +3188,7 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="7"/>
-      <c r="W9" s="13"/>
+      <c r="W9" s="11"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="4"/>
@@ -3472,7 +3196,7 @@
       <c r="AB9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="AC9" s="10" t="s">
+      <c r="AC9" s="8" t="s">
         <v>96</v>
       </c>
       <c r="AD9" s="6" t="s">
@@ -3505,7 +3229,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="13"/>
+      <c r="W10" s="11"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="7"/>
       <c r="Z10" s="4"/>
@@ -3513,7 +3237,7 @@
       <c r="AB10" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AC10" s="10" t="s">
+      <c r="AC10" s="8" t="s">
         <v>99</v>
       </c>
       <c r="AD10" s="6" t="s">
@@ -3542,7 +3266,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="7"/>
-      <c r="W11" s="13"/>
+      <c r="W11" s="11"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="4"/>
@@ -3550,7 +3274,7 @@
       <c r="AB11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="AC11" s="10" t="s">
+      <c r="AC11" s="8" t="s">
         <v>102</v>
       </c>
       <c r="AD11" s="6" t="s">
@@ -3560,40 +3284,40 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>1</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="15">
-        <v>1</v>
-      </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="15"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="13">
+        <v>1</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="13"/>
       <c r="AB12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AC12" s="10" t="s">
+      <c r="AC12" s="8" t="s">
         <v>105</v>
       </c>
       <c r="AD12" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AE12" s="18" t="s">
+      <c r="AE12" s="16" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3613,7 +3337,7 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="7"/>
-      <c r="W13" s="13">
+      <c r="W13" s="11">
         <v>1</v>
       </c>
       <c r="X13" s="4"/>
@@ -3623,7 +3347,7 @@
       <c r="AB13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="AC13" s="10" t="s">
+      <c r="AC13" s="8" t="s">
         <v>108</v>
       </c>
       <c r="AD13" s="6" t="s">
@@ -3651,7 +3375,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="7"/>
-      <c r="W14" s="13"/>
+      <c r="W14" s="11"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="7"/>
       <c r="Z14" s="4"/>
@@ -3659,7 +3383,7 @@
       <c r="AB14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AC14" s="10" t="s">
+      <c r="AC14" s="8" t="s">
         <v>111</v>
       </c>
       <c r="AD14" s="6" t="s">
@@ -3689,7 +3413,7 @@
       </c>
       <c r="U15" s="4"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="13"/>
+      <c r="W15" s="11"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="4"/>
@@ -3697,7 +3421,7 @@
       <c r="AB15" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AC15" s="8" t="s">
         <v>114</v>
       </c>
       <c r="AD15" s="6" t="s">
@@ -3727,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="V16" s="7"/>
-      <c r="W16" s="13"/>
+      <c r="W16" s="11"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="7"/>
       <c r="Z16" s="4"/>
@@ -3735,7 +3459,7 @@
       <c r="AB16" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="AC16" s="10" t="s">
+      <c r="AC16" s="8" t="s">
         <v>117</v>
       </c>
       <c r="AD16" s="6" t="s">
@@ -3745,42 +3469,42 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1</v>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16">
-        <v>1</v>
-      </c>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="15">
-        <v>1</v>
-      </c>
-      <c r="W17" s="17"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="15"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14">
+        <v>1</v>
+      </c>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="13">
+        <v>1</v>
+      </c>
+      <c r="W17" s="15"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="13"/>
       <c r="AB17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AC17" s="10" t="s">
+      <c r="AC17" s="8" t="s">
         <v>120</v>
       </c>
       <c r="AD17" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AE17" s="18" t="s">
+      <c r="AE17" s="16" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3801,7 +3525,7 @@
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="13"/>
+      <c r="W18" s="11"/>
       <c r="X18" s="4">
         <v>1</v>
       </c>
@@ -3811,13 +3535,13 @@
       <c r="AB18" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AC18" s="8" t="s">
         <v>123</v>
       </c>
       <c r="AD18" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AE18" s="18" t="s">
+      <c r="AE18" s="16" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3846,7 +3570,7 @@
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="7"/>
-      <c r="W19" s="13"/>
+      <c r="W19" s="11"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="7">
         <v>1</v>
@@ -3856,13 +3580,13 @@
       <c r="AB19" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="AC19" s="10" t="s">
+      <c r="AC19" s="8" t="s">
         <v>124</v>
       </c>
       <c r="AD19" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AE19" s="18" t="s">
+      <c r="AE19" s="16" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3893,7 +3617,7 @@
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="7"/>
-      <c r="W20" s="13"/>
+      <c r="W20" s="11"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="7"/>
       <c r="Z20" s="4"/>
@@ -3901,7 +3625,7 @@
       <c r="AB20" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AC20" s="10" t="s">
+      <c r="AC20" s="8" t="s">
         <v>127</v>
       </c>
       <c r="AD20" s="6" t="s">
@@ -3938,7 +3662,7 @@
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="7"/>
-      <c r="W21" s="13"/>
+      <c r="W21" s="11"/>
       <c r="X21" s="4"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="4"/>
@@ -3946,7 +3670,7 @@
       <c r="AB21" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AC21" s="10" t="s">
+      <c r="AC21" s="8" t="s">
         <v>128</v>
       </c>
       <c r="AD21" s="6" t="s">
@@ -3979,13 +3703,13 @@
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="7"/>
-      <c r="W22" s="13"/>
+      <c r="W22" s="11"/>
       <c r="X22" s="4"/>
       <c r="Y22" s="7"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="6"/>
-      <c r="AC22" s="10"/>
+      <c r="AC22" s="8"/>
       <c r="AD22" s="6"/>
       <c r="AE22" s="6"/>
     </row>
@@ -4012,13 +3736,13 @@
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="7"/>
-      <c r="W23" s="13"/>
+      <c r="W23" s="11"/>
       <c r="X23" s="4"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="6"/>
-      <c r="AC23" s="10"/>
+      <c r="AC23" s="8"/>
       <c r="AD23" s="6"/>
       <c r="AE23" s="6"/>
     </row>
@@ -4045,13 +3769,13 @@
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="7"/>
-      <c r="W24" s="13"/>
+      <c r="W24" s="11"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="7"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="10"/>
+      <c r="AC24" s="8"/>
       <c r="AD24" s="6"/>
       <c r="AE24" s="6"/>
     </row>
@@ -4078,14 +3802,14 @@
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="7"/>
-      <c r="W25" s="13"/>
+      <c r="W25" s="11"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="6"/>
-      <c r="AC25" s="10"/>
-      <c r="AD25" s="21"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="19"/>
       <c r="AE25" s="6"/>
     </row>
     <row r="26" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4111,13 +3835,13 @@
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="7"/>
-      <c r="W26" s="13"/>
+      <c r="W26" s="11"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="10"/>
+      <c r="AC26" s="8"/>
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
     </row>
@@ -4136,7 +3860,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="7"/>
-      <c r="W27" s="13"/>
+      <c r="W27" s="11"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="4"/>
@@ -4158,7 +3882,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="7"/>
-      <c r="W28" s="13"/>
+      <c r="W28" s="11"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="4"/>
@@ -4180,7 +3904,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="7"/>
-      <c r="W29" s="13"/>
+      <c r="W29" s="11"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="4"/>
@@ -4188,7 +3912,7 @@
       <c r="AB29" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AC29" s="10" t="s">
+      <c r="AC29" s="8" t="s">
         <v>134</v>
       </c>
       <c r="AD29" s="6" t="s">
@@ -4213,7 +3937,7 @@
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="7"/>
-      <c r="W30" s="13"/>
+      <c r="W30" s="11"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="4"/>
@@ -4221,7 +3945,7 @@
       <c r="AB30" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AC30" s="10" t="s">
+      <c r="AC30" s="8" t="s">
         <v>138</v>
       </c>
       <c r="AD30" s="6" t="s">
@@ -4246,7 +3970,7 @@
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="7"/>
-      <c r="W31" s="13"/>
+      <c r="W31" s="11"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="4"/>
@@ -4268,7 +3992,7 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="7"/>
-      <c r="W32" s="13"/>
+      <c r="W32" s="11"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="4"/>
@@ -4290,7 +4014,7 @@
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
       <c r="V33" s="7"/>
-      <c r="W33" s="13"/>
+      <c r="W33" s="11"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="4"/>
@@ -4312,13 +4036,13 @@
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
       <c r="V34" s="7"/>
-      <c r="W34" s="13"/>
+      <c r="W34" s="11"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="7"/>
       <c r="AB34" s="6"/>
-      <c r="AC34" s="10"/>
+      <c r="AC34" s="8"/>
       <c r="AD34" s="6"/>
       <c r="AE34" s="6"/>
     </row>
@@ -4337,13 +4061,13 @@
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="7"/>
-      <c r="W35" s="13"/>
+      <c r="W35" s="11"/>
       <c r="X35" s="4"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="7"/>
       <c r="AB35" s="6"/>
-      <c r="AC35" s="10"/>
+      <c r="AC35" s="8"/>
       <c r="AD35" s="6"/>
       <c r="AE35" s="6"/>
     </row>
@@ -4362,13 +4086,13 @@
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="7"/>
-      <c r="W36" s="13"/>
+      <c r="W36" s="11"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="7"/>
       <c r="AB36" s="6"/>
-      <c r="AC36" s="10"/>
+      <c r="AC36" s="8"/>
       <c r="AD36" s="6"/>
       <c r="AE36" s="6"/>
     </row>
@@ -4387,13 +4111,13 @@
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="7"/>
-      <c r="W37" s="13"/>
+      <c r="W37" s="11"/>
       <c r="X37" s="4"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="7"/>
       <c r="AB37" s="6"/>
-      <c r="AC37" s="10"/>
+      <c r="AC37" s="8"/>
       <c r="AD37" s="6"/>
       <c r="AE37" s="6"/>
     </row>
@@ -4412,13 +4136,13 @@
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="7"/>
-      <c r="W38" s="13"/>
+      <c r="W38" s="11"/>
       <c r="X38" s="4"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="7"/>
       <c r="AB38" s="6"/>
-      <c r="AC38" s="10"/>
+      <c r="AC38" s="8"/>
       <c r="AD38" s="6"/>
       <c r="AE38" s="6"/>
     </row>
@@ -4437,13 +4161,13 @@
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="7"/>
-      <c r="W39" s="13"/>
+      <c r="W39" s="11"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="7"/>
       <c r="AB39" s="6"/>
-      <c r="AC39" s="10"/>
+      <c r="AC39" s="8"/>
       <c r="AD39" s="6"/>
       <c r="AE39" s="6"/>
     </row>
@@ -4462,7 +4186,7 @@
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="7"/>
-      <c r="W40" s="13"/>
+      <c r="W40" s="11"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="4"/>
@@ -4484,7 +4208,7 @@
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="7"/>
-      <c r="W41" s="13"/>
+      <c r="W41" s="11"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="4"/>
@@ -4506,7 +4230,7 @@
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="7"/>
-      <c r="W42" s="13"/>
+      <c r="W42" s="11"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="4"/>
@@ -4528,7 +4252,7 @@
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
       <c r="V43" s="7"/>
-      <c r="W43" s="13"/>
+      <c r="W43" s="11"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="4"/>
@@ -4550,7 +4274,7 @@
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
       <c r="V44" s="7"/>
-      <c r="W44" s="13"/>
+      <c r="W44" s="11"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="4"/>
@@ -4572,7 +4296,7 @@
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
       <c r="V45" s="7"/>
-      <c r="W45" s="13"/>
+      <c r="W45" s="11"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="4"/>
@@ -4594,7 +4318,7 @@
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="7"/>
-      <c r="W46" s="13"/>
+      <c r="W46" s="11"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="4"/>
@@ -4616,7 +4340,7 @@
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="7"/>
-      <c r="W47" s="13"/>
+      <c r="W47" s="11"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="4"/>
@@ -4638,7 +4362,7 @@
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="7"/>
-      <c r="W48" s="13"/>
+      <c r="W48" s="11"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="4"/>
@@ -4660,7 +4384,7 @@
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
       <c r="V49" s="7"/>
-      <c r="W49" s="13"/>
+      <c r="W49" s="11"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="4"/>
@@ -4682,18 +4406,23 @@
       <c r="T50" s="4"/>
       <c r="U50" s="4"/>
       <c r="V50" s="7"/>
-      <c r="W50" s="13"/>
+      <c r="W50" s="11"/>
       <c r="X50" s="4"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="7"/>
       <c r="AB50" s="6"/>
-      <c r="AC50" s="10"/>
+      <c r="AC50" s="8"/>
       <c r="AD50" s="6"/>
       <c r="AE50" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="K1:M1"/>
@@ -4702,11 +4431,6 @@
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="W1:W2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4724,36 +4448,36 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="101" style="10" customWidth="1"/>
+    <col min="2" max="2" width="101" style="8" customWidth="1"/>
     <col min="3" max="3" width="160.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="79" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>144</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -4767,7 +4491,7 @@
       <c r="A4" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -4781,10 +4505,10 @@
       <c r="A5" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -4793,25 +4517,25 @@
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="10"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="10"/>
+    <row r="7" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="18"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="10"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
@@ -4821,11 +4545,11 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="10"/>
+    <row r="12" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="18"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -4839,63 +4563,63 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="10"/>
+    <row r="17" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="18"/>
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
@@ -4922,37 +4646,37 @@
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
@@ -4988,7 +4712,7 @@
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
@@ -5016,36 +4740,36 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="168.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="168.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="192.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="79" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>184</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5059,7 +4783,7 @@
       <c r="A4" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>185</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -5071,53 +4795,53 @@
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="C12" s="10"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -5127,59 +4851,59 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="D17" s="18"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="19"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
@@ -5206,37 +4930,37 @@
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
@@ -5272,7 +4996,7 @@
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
@@ -5299,36 +5023,36 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="116.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="116.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="178" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>195</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5342,7 +5066,7 @@
       <c r="A4" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -5356,7 +5080,7 @@
       <c r="A5" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -5370,7 +5094,7 @@
       <c r="A6" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>198</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -5384,113 +5108,113 @@
       <c r="A7" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>199</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
@@ -5517,37 +5241,37 @@
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
@@ -5583,7 +5307,7 @@
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
@@ -5610,36 +5334,36 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="126.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="126.7109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="101" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5653,7 +5377,7 @@
       <c r="A4" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -5667,7 +5391,7 @@
       <c r="A5" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>162</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -5678,16 +5402,16 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5695,7 +5419,7 @@
       <c r="A7" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>168</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -5707,101 +5431,101 @@
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
@@ -5828,37 +5552,37 @@
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
@@ -5894,7 +5618,7 @@
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
@@ -5921,36 +5645,36 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="79" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>174</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5964,7 +5688,7 @@
       <c r="A4" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>175</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -5978,7 +5702,7 @@
       <c r="A5" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>176</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -5990,113 +5714,113 @@
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="18"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="16"/>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="19"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
@@ -6123,37 +5847,37 @@
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
@@ -6189,7 +5913,7 @@
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
@@ -6216,36 +5940,36 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="129.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="129.42578125" style="8" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="103.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>215</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -6259,7 +5983,7 @@
       <c r="A4" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>216</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -6273,7 +5997,7 @@
       <c r="A5" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>217</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6287,7 +6011,7 @@
       <c r="A6" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -6301,13 +6025,13 @@
       <c r="A7" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6315,107 +6039,107 @@
       <c r="A8" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
@@ -6442,37 +6166,37 @@
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
@@ -6508,7 +6232,7 @@
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>
@@ -6536,36 +6260,36 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="140.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="140.85546875" style="8" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
     <col min="4" max="4" width="106.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="12" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>227</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -6579,7 +6303,7 @@
       <c r="A4" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>228</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -6593,7 +6317,7 @@
       <c r="A5" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>229</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -6607,7 +6331,7 @@
       <c r="A6" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>242</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -6621,13 +6345,13 @@
       <c r="A7" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>243</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6635,107 +6359,107 @@
       <c r="A8" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>244</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
-      <c r="C10" s="10"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="C15" s="10"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="8"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="19"/>
       <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="10"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
@@ -6762,37 +6486,37 @@
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="8"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="10"/>
+      <c r="B38" s="8"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
     </row>
@@ -6828,7 +6552,7 @@
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="10"/>
+      <c r="B50" s="8"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
     </row>

--- a/Casos Cartera/Procesos.xlsx
+++ b/Casos Cartera/Procesos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" tabRatio="787" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Trabajar con remesas" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="270">
   <si>
     <t>Nombre CP</t>
   </si>
@@ -808,6 +808,54 @@
   </si>
   <si>
     <t>TC_Cartera_SBIFD93_FechaError</t>
+  </si>
+  <si>
+    <t>Validar decarga de archivo con formato solicitado por la SBIF, indicando fecha correspondiente para generar el mismo</t>
+  </si>
+  <si>
+    <t>Validar emisión de nómina, indicando fecha correspondiente para generar información correspondiente a la nómina</t>
+  </si>
+  <si>
+    <t>Validar decarga de archivo con formato solicitado por la SBIF, indicando fecha que no corresponda a día sábado</t>
+  </si>
+  <si>
+    <t>Validar decarga de archivo con formato solicitado por la SBIF, indicando mes y año en los cuales exiten registros</t>
+  </si>
+  <si>
+    <t>Validar decarga de archivo con formato solicitado por la SBIF, sin indicar mes y año</t>
+  </si>
+  <si>
+    <t>Validar emisión de nómina, indicando mes y año para generar información correspondiente a la nómina</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generar Archivo SBIF D92, indicar fecha correspondiente a día sábado, hacer clic en boton descargar archivo</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generar Archivo SBIF D92, indicar fecha correspondiente a día sábado, hacer clic en boton emitir nomina</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generar Archivo SBIF D92, hacer clic en boton descargar archivo</t>
+  </si>
+  <si>
+    <t>Descarga de archivo con el formato solicitado por la SBIF de manera exitosa</t>
+  </si>
+  <si>
+    <t>Se debe visualizar información de manera correcta en la nómina</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando Error:Periocidad de la Información es de Domingo a Sábado.</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generar Archivo SBIF D93, indicar mes y año, hacer clic en boton descargar archivo</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generar Archivo SBIF D93, indicar mes y año, hacer clic en boton emitir nomina</t>
+  </si>
+  <si>
+    <t>Acceder a sistema Cartera con usuario que posee perfil para acceder al modulo Proceso - sub modulo Generar Archivo SBIF D93, hacer clic en boton descargar archivo</t>
+  </si>
+  <si>
+    <t>Sistema emite mensaje indicando Debe Ingresar Fecha</t>
   </si>
 </sst>
 </file>
@@ -1036,18 +1084,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1056,6 +1092,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2171,17 +2219,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:B2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="255.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="120.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="79" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2208,25 +2256,43 @@
       <c r="A3" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -2448,16 +2514,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="255.42578125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="255.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="79" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.5703125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="180.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="77.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2484,25 +2550,43 @@
       <c r="A3" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -2756,10 +2840,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="34"/>
@@ -2770,34 +2854,34 @@
       <c r="H1" s="34"/>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="42"/>
       <c r="M1" s="35"/>
-      <c r="N1" s="38" t="s">
+      <c r="N1" s="40" t="s">
         <v>32</v>
       </c>
       <c r="O1" s="39"/>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="38" t="s">
         <v>33</v>
       </c>
       <c r="Q1" s="39"/>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
       <c r="V1" s="39"/>
       <c r="W1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="X1" s="40" t="s">
         <v>40</v>
       </c>
       <c r="Y1" s="39"/>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="40" t="s">
         <v>43</v>
       </c>
       <c r="AA1" s="39"/>
@@ -4418,11 +4502,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="AC1:AC2"/>
     <mergeCell ref="AD1:AD2"/>
     <mergeCell ref="AE1:AE2"/>
     <mergeCell ref="K1:M1"/>
@@ -4431,6 +4510,11 @@
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="AC1:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6254,7 +6338,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M15" sqref="M14:M15"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
